--- a/biology/Médecine/1257_en_santé_et_médecine/1257_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1257_en_santé_et_médecine/1257_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1257_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1257_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1257 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1257_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1257_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Par un acte tenu pour fondateur de l'hôtel-Dieu de Toulouse, le prieur de Notre-Dame de la Daurade[1] confie à la confrérie Saint-Jacques le bâtiment de l'hôpital Novel, construit entre 1225 et 1227[2].
-Fondation à Pise en Toscane, par le pape Alexandre IV, d'un Ospedale della Misericordia (« hôpital de la Miséricorde ») qui est aux origines de l'actuel hôpital Santa Chiara (it)[3].
-Fondation de l'hôtel-Dieu de Saint-Gilles, dans le Bas-Languedoc, dédié aux « malades  défavorisés  et  [aux]  aliénés » et confié aux Hospitaliers qui conserveront cette charge jusqu’au XVIIIe siècle[4].
-Fondation à Blaye en Guyenne, par Geoffroy V Rudel, seigneur du lieu, d'un hôpital qui est aux origines de l'actuel centre hospitalier de la Haute Gironde[5].
-Refondation par Louis IX de l'hôtel-Dieu Saint-Nicolas de Compiègne[6].
-Pierre d'Aigueblanche, évêque de Hereford, « devenu lourd […], et atteint au nez d'un polype galeux ou frappé d'une espèce de lèpre », se fait soigner à Montpellier[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Par un acte tenu pour fondateur de l'hôtel-Dieu de Toulouse, le prieur de Notre-Dame de la Daurade confie à la confrérie Saint-Jacques le bâtiment de l'hôpital Novel, construit entre 1225 et 1227.
+Fondation à Pise en Toscane, par le pape Alexandre IV, d'un Ospedale della Misericordia (« hôpital de la Miséricorde ») qui est aux origines de l'actuel hôpital Santa Chiara (it).
+Fondation de l'hôtel-Dieu de Saint-Gilles, dans le Bas-Languedoc, dédié aux « malades  défavorisés  et  [aux]  aliénés » et confié aux Hospitaliers qui conserveront cette charge jusqu’au XVIIIe siècle.
+Fondation à Blaye en Guyenne, par Geoffroy V Rudel, seigneur du lieu, d'un hôpital qui est aux origines de l'actuel centre hospitalier de la Haute Gironde.
+Refondation par Louis IX de l'hôtel-Dieu Saint-Nicolas de Compiègne.
+Pierre d'Aigueblanche, évêque de Hereford, « devenu lourd […], et atteint au nez d'un polype galeux ou frappé d'une espèce de lèpre », se fait soigner à Montpellier.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1257_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1257_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Constantinus Pisanus, médecin, alchimiste et théologien qui aurait étudié à Bologne et Padoue, rédige son  Liber secretorum alchimiae (« Livre des secrets de l'alchimie[8] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Constantinus Pisanus, médecin, alchimiste et théologien qui aurait étudié à Bologne et Padoue, rédige son  Liber secretorum alchimiae (« Livre des secrets de l'alchimie »).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1257_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1257_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Ponce de Alzona, médecin et chapelain de Pietro Capocci, cardinal-diacre de Saint-Georges du Vélabre, chanoine de Narbonne[9].
-Fl. G de Viridario, médecin, témoin d'un acte passé à Alès[10].
-Avant 1257 : fl. Richard, barbier, et Seincardus, médecin, l'un et l'autre à Courville, dans le diocèse de Reims[9].
-Vers 1257-1260 : fl. Geoffroi de Plorgaznou, médecin à Plourivo, en Bretagne[10].
-1257-1303 : fl. Guillaume de Collogrières, médecin ; en 1257, assiste Guillaume Ribot, évêque de Vence, dans sa dernière maladie à l'abbaye Saint-Victor de Marseille[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Ponce de Alzona, médecin et chapelain de Pietro Capocci, cardinal-diacre de Saint-Georges du Vélabre, chanoine de Narbonne.
+Fl. G de Viridario, médecin, témoin d'un acte passé à Alès.
+Avant 1257 : fl. Richard, barbier, et Seincardus, médecin, l'un et l'autre à Courville, dans le diocèse de Reims.
+Vers 1257-1260 : fl. Geoffroi de Plorgaznou, médecin à Plourivo, en Bretagne.
+1257-1303 : fl. Guillaume de Collogrières, médecin ; en 1257, assiste Guillaume Ribot, évêque de Vence, dans sa dernière maladie à l'abbaye Saint-Victor de Marseille.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1257_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1257_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1257 ou 1258 : Nicholas Farnham (en) (né à une date inconnue), médecin et homme d'Église anglais[9],[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1257 ou 1258 : Nicholas Farnham (en) (né à une date inconnue), médecin et homme d'Église anglais,.</t>
         </is>
       </c>
     </row>
